--- a/sims/s32/gs-radiances-tau0.xlsx
+++ b/sims/s32/gs-radiances-tau0.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="7280" yWindow="0" windowWidth="17540" windowHeight="14320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="gs_rad_tau0" localSheetId="0">Sheet1!$A$2:$C$23</definedName>
+    <definedName name="gs_rad_tau0" localSheetId="0">Sheet1!$A$2:$C$22</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>mu</t>
   </si>
@@ -46,15 +47,56 @@
   <si>
     <t>tau/10</t>
   </si>
+  <si>
+    <t>tau/5</t>
+  </si>
+  <si>
+    <t>tau/2</t>
+  </si>
+  <si>
+    <t>3*tau/4</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>tau=0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000E+00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,13 +119,72 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="29">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,19 +518,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.1640625" customWidth="1"/>
     <col min="2" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +544,20 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -453,8 +567,23 @@
       <c r="C2">
         <v>4.41912E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2">
+        <v>4.0646700000000001E-2</v>
+      </c>
+      <c r="E2">
+        <v>3.3709900000000001E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.5857199999999998E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5.4297E-3</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0.9</v>
       </c>
@@ -464,8 +593,23 @@
       <c r="C3">
         <v>6.0374299999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3">
+        <v>5.6013899999999998E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.7289900000000003E-2</v>
+      </c>
+      <c r="F3">
+        <v>2.3812099999999999E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>9.0108299999999992E-3</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>-0.8</v>
       </c>
@@ -475,8 +619,23 @@
       <c r="C4">
         <v>7.9676300000000005E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4">
+        <v>7.4442499999999995E-2</v>
+      </c>
+      <c r="E4">
+        <v>6.3754000000000005E-2</v>
+      </c>
+      <c r="F4">
+        <v>3.3828700000000003E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.36919E-2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>-0.7</v>
       </c>
@@ -486,8 +645,23 @@
       <c r="C5">
         <v>0.102719</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5">
+        <v>9.6567799999999995E-2</v>
+      </c>
+      <c r="E5">
+        <v>8.3748799999999998E-2</v>
+      </c>
+      <c r="F5">
+        <v>4.64918E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.9884499999999999E-2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>-0.6</v>
       </c>
@@ -497,8 +671,23 @@
       <c r="C6">
         <v>0.13020399999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6">
+        <v>0.123128</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.10806300000000001</v>
+      </c>
+      <c r="F6">
+        <v>6.2604800000000002E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.8172099999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>-0.5</v>
       </c>
@@ -508,8 +697,23 @@
       <c r="C7">
         <v>0.162852</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7">
+        <v>0.154919</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.13761799999999999</v>
+      </c>
+      <c r="F7">
+        <v>8.3292099999999994E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.9479199999999999E-2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>-0.4</v>
       </c>
@@ -519,8 +723,23 @@
       <c r="C8">
         <v>0.20120099999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8">
+        <v>0.19262599999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.17335800000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.110124</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5.5363099999999998E-2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>-0.3</v>
       </c>
@@ -530,8 +749,23 @@
       <c r="C9">
         <v>0.24506500000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9">
+        <v>0.23630999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.215806</v>
+      </c>
+      <c r="F9">
+        <v>0.145144</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7.86298E-2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>-0.2</v>
       </c>
@@ -541,8 +775,23 @@
       <c r="C10">
         <v>0.29240100000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10">
+        <v>0.28424100000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.26379999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.19003500000000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.11455700000000001</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>-0.1</v>
       </c>
@@ -552,8 +801,23 @@
       <c r="C11">
         <v>0.338476</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11">
+        <v>0.331984</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.312888</v>
+      </c>
+      <c r="F11">
+        <v>0.24121699999999999</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.17069699999999999</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>0</v>
       </c>
@@ -563,132 +827,490 @@
       <c r="C12">
         <v>0.37448500000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12">
+        <v>0.37380000000000002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.35934700000000003</v>
+      </c>
+      <c r="F12">
+        <v>0.28825800000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.22562299999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.15151999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.37448500000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.15562000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.25142700000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.338864</v>
+      </c>
+      <c r="F13">
+        <v>0.33070300000000002</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.26985500000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.203073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.15562000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>9.2437000000000005E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.16508</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.26188699999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.33551700000000001</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.30155300000000002</v>
+      </c>
+      <c r="H14">
+        <v>0.24424199999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.2437000000000005E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>6.7072599999999996E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.124144</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.21038299999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.314805</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.30971300000000002</v>
+      </c>
+      <c r="H15">
+        <v>0.27030199999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.7072599999999996E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>5.3017000000000002E-2</v>
+      </c>
+      <c r="D16">
+        <v>9.9893899999999994E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.17530399999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.28818300000000002</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.30293900000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.28106599999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.3017000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>4.3718199999999999E-2</v>
+      </c>
+      <c r="D17">
+        <v>8.3238300000000001E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.14925099999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.26130399999999998</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.288464</v>
+      </c>
+      <c r="H17">
+        <v>0.28082200000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.3718199999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>3.6786399999999997E-2</v>
+      </c>
+      <c r="D18">
+        <v>7.0519399999999996E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.12832299999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.235259</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.26979300000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.27302900000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.6786399999999997E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>3.1141100000000001E-2</v>
+      </c>
+      <c r="D19">
+        <v>5.9990799999999997E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.110387</v>
+      </c>
+      <c r="F19">
+        <v>0.20993899999999999</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.248476</v>
+      </c>
+      <c r="H19">
+        <v>0.259822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.1141100000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>2.6222499999999999E-2</v>
+      </c>
+      <c r="D20">
+        <v>5.0716600000000001E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9.4200099999999995E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.18498200000000001</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.22517899999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.242453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.6222499999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>2.1713300000000001E-2</v>
+      </c>
+      <c r="D21">
+        <v>4.2153799999999998E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7.9003900000000002E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.16003400000000001</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.200187</v>
+      </c>
+      <c r="H21">
+        <v>0.221667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2.1713300000000001E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
         <v>1.74231E-2</v>
       </c>
+      <c r="D22">
+        <v>3.3971599999999998E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6.4319299999999996E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.13481899999999999</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.173627</v>
+      </c>
+      <c r="H22">
+        <v>0.197932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="G23" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A1:C11">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.6018099999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6.1659600000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>-0.7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9.1035900000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.12625400000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.16891100000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.22042500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.28171499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.35222599999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.428566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.49059199999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
